--- a/tests/data/experiments/lr-xval-xlsx/output/folds/01/output/lr_xval_xlsx_fold01_confMatrix.xlsx
+++ b/tests/data/experiments/lr-xval-xlsx/output/folds/01/output/lr_xval_xlsx_fold01_confMatrix.xlsx
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>45</v>
@@ -517,7 +517,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>19</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
